--- a/Test Results/First Test.xlsx
+++ b/Test Results/First Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvgcalites\Desktop\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvgcalites\Documents\GitHub\Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{F0FEA8A7-FEF3-4A7A-8762-8B57276F4F74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC69F42-B2E7-4093-81D0-D67A1D79A7F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1F9DECEC-7B05-4FB7-92AE-4796B118B5F4}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -231,457 +232,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3009,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F593CE-FA69-40E4-B3E7-AC516885CB0A}">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <f>SUM(B8:K8)</f>
+        <f t="shared" ref="L8:L34" si="0">SUM(B8:K8)</f>
         <v>3</v>
       </c>
     </row>
@@ -3155,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <f>SUM(B9:K9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3194,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <f>SUM(B10:K10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3233,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <f>SUM(B11:K11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3272,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <f>SUM(B12:K12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -3311,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <f>SUM(B13:K13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -3320,47 +2871,47 @@
         <v>17</v>
       </c>
       <c r="B14" s="3">
-        <f>SUM(B13)</f>
+        <f t="shared" ref="B14:K14" si="1">SUM(B13)</f>
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <f>SUM(C13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(D13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <f>SUM(E13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <f>SUM(F13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <f>SUM(G13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H14" s="3">
-        <f>SUM(H13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <f>SUM(I13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f>SUM(J13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <f>SUM(K13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <f>SUM(B14:K14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -3399,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <f>SUM(B15:K15)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -3438,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <f>SUM(B16:K16)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -3477,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <f>SUM(B17:K17)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -3516,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <f>SUM(B18:K18)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -3555,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <f>SUM(B19:K19)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -3594,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f>SUM(B20:K20)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3633,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <f>SUM(B21:K21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3672,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <f>SUM(B22:K22)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3711,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <f>SUM(B23:K23)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="W23" s="4" t="s">
@@ -3753,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <f>SUM(B24:K24)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="W24" s="4"/>
@@ -3793,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <f>SUM(B25:K25)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="W25" s="4"/>
@@ -3833,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <f>SUM(B26:K26)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="W26" s="4"/>
@@ -3873,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <f>SUM(B27:K27)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="W27" t="s">
@@ -3915,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <f>SUM(B28:K28)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3954,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <f>SUM(B29:K29)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3993,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <f>SUM(B30:K30)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4032,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <f>SUM(B31:K31)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4071,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <f>SUM(B32:K32)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4110,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <f>SUM(B33:K33)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4149,49 +3700,49 @@
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <f>SUM(B34:K34)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <f>SUM(B8:B34)</f>
+        <f t="shared" ref="B35:K35" si="2">SUM(B8:B34)</f>
         <v>16</v>
       </c>
       <c r="C35" s="2">
-        <f>SUM(C8:C34)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D35" s="2">
-        <f>SUM(D8:D34)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E35" s="2">
-        <f>SUM(E8:E34)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="F35" s="2">
-        <f>SUM(F8:F34)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G35" s="2">
-        <f>SUM(G8:G34)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="H35" s="2">
-        <f>SUM(H8:H34)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I35" s="2">
-        <f>SUM(I8:I34)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="J35" s="2">
-        <f>SUM(J8:J34)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K35" s="2">
-        <f>SUM(K8:K34)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -4265,7 +3816,7 @@
         <v>91.53</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" ref="L39:L53" si="0">AVERAGE(B39:K39)</f>
+        <f t="shared" ref="L39:L53" si="3">AVERAGE(B39:K39)</f>
         <v>93.049000000000007</v>
       </c>
     </row>
@@ -4304,7 +3855,7 @@
         <v>90.51</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>92.804000000000002</v>
       </c>
     </row>
@@ -4343,7 +3894,7 @@
         <v>90.51</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>92.462000000000003</v>
       </c>
     </row>
@@ -4382,7 +3933,7 @@
         <v>89.32</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90.98299999999999</v>
       </c>
     </row>
@@ -4421,7 +3972,7 @@
         <v>88.64</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90.086999999999989</v>
       </c>
     </row>
@@ -4460,7 +4011,7 @@
         <v>87.46</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>88.863000000000014</v>
       </c>
     </row>
@@ -4499,7 +4050,7 @@
         <v>85.93</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>87.940000000000012</v>
       </c>
     </row>
@@ -4538,7 +4089,7 @@
         <v>85.59</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>87.061999999999998</v>
       </c>
     </row>
@@ -4577,7 +4128,7 @@
         <v>84.92</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>86.602999999999994</v>
       </c>
     </row>
@@ -4616,7 +4167,7 @@
         <v>84.24</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>85.618000000000009</v>
       </c>
     </row>
@@ -4655,7 +4206,7 @@
         <v>82.37</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>84.686000000000007</v>
       </c>
     </row>
@@ -4694,7 +4245,7 @@
         <v>82.37</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>83.882999999999996</v>
       </c>
     </row>
@@ -4733,7 +4284,7 @@
         <v>81.69</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>82.779000000000025</v>
       </c>
     </row>
@@ -4772,7 +4323,7 @@
         <v>80.849999999999994</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>81.742000000000004</v>
       </c>
     </row>
@@ -4811,49 +4362,49 @@
         <v>77.97</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>79.14200000000001</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
-        <f t="shared" ref="B54:K54" si="1">AVERAGE(B39:B53)</f>
+        <f t="shared" ref="B54:K54" si="4">AVERAGE(B39:B53)</f>
         <v>89.915999999999997</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88.751333333333349</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88.13066666666667</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88.107333333333344</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>87.36866666666667</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>86.701999999999998</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>86.000666666666646</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>85.63866666666668</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>85.593333333333334</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>85.593333333333334</v>
       </c>
     </row>
@@ -4865,31 +4416,31 @@
     <mergeCell ref="W23:W26"/>
   </mergeCells>
   <conditionalFormatting sqref="B39:B53">
-    <cfRule type="top10" dxfId="18" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C53">
-    <cfRule type="top10" dxfId="17" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D53">
-    <cfRule type="top10" dxfId="16" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E53">
-    <cfRule type="top10" dxfId="15" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F53">
-    <cfRule type="top10" dxfId="14" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:G53">
-    <cfRule type="top10" dxfId="13" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H53">
-    <cfRule type="top10" dxfId="12" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I53">
-    <cfRule type="top10" dxfId="11" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J53">
-    <cfRule type="top10" dxfId="10" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K54">
     <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
